--- a/Result/LSTM Multi/Manufacturing/JPN.xlsx
+++ b/Result/LSTM Multi/Manufacturing/JPN.xlsx
@@ -604,7 +604,7 @@
         <v>2017</v>
       </c>
       <c r="B2">
-        <v>20.28134727478027</v>
+        <v>20.40768432617188</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -612,7 +612,7 @@
         <v>2018</v>
       </c>
       <c r="B3">
-        <v>20.41149711608887</v>
+        <v>20.48263168334961</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -620,7 +620,7 @@
         <v>2019</v>
       </c>
       <c r="B4">
-        <v>20.58205032348633</v>
+        <v>20.58500099182129</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -628,7 +628,7 @@
         <v>2020</v>
       </c>
       <c r="B5">
-        <v>20.75168228149414</v>
+        <v>20.76921653747559</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -636,7 +636,7 @@
         <v>2021</v>
       </c>
       <c r="B6">
-        <v>20.82049369812012</v>
+        <v>20.80367660522461</v>
       </c>
     </row>
   </sheetData>
@@ -910,7 +910,7 @@
         <v>2022</v>
       </c>
       <c r="B2">
-        <v>20.0123119354248</v>
+        <v>20.1590747833252</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -918,7 +918,7 @@
         <v>2023</v>
       </c>
       <c r="B3">
-        <v>20.20119094848633</v>
+        <v>20.30141067504883</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -926,7 +926,7 @@
         <v>2024</v>
       </c>
       <c r="B4">
-        <v>20.46358871459961</v>
+        <v>20.48991012573242</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -934,7 +934,7 @@
         <v>2025</v>
       </c>
       <c r="B5">
-        <v>20.72060775756836</v>
+        <v>20.73577117919922</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -942,7 +942,7 @@
         <v>2026</v>
       </c>
       <c r="B6">
-        <v>20.8319263458252</v>
+        <v>20.81985855102539</v>
       </c>
     </row>
   </sheetData>
